--- a/Data_frame/balancos_definitivos/CRIV4.xlsx
+++ b/Data_frame/balancos_definitivos/CRIV4.xlsx
@@ -17200,31 +17200,31 @@
         <v>140800</v>
       </c>
       <c r="AI58" t="n">
+        <v>170133.984</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>127797</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AK58" t="n">
         <v>112522</v>
       </c>
-      <c r="AK58" t="n">
+      <c r="AL58" t="n">
         <v>133510</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>108471.992</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AN58" t="n">
         <v>119541</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>101116</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>117753</v>
       </c>
-      <c r="AP58" t="n">
+      <c r="AQ58" t="n">
         <v>85482</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>115332</v>
       </c>
       <c r="AR58" t="n">
         <v>115332</v>
@@ -17353,31 +17353,31 @@
         <v>127125</v>
       </c>
       <c r="CH58" t="n">
+        <v>169527.008</v>
+      </c>
+      <c r="CI58" t="n">
         <v>238645.024</v>
       </c>
-      <c r="CI58" t="n">
+      <c r="CJ58" t="n">
         <v>266356.992</v>
       </c>
-      <c r="CJ58" t="n">
+      <c r="CK58" t="n">
         <v>287337.984</v>
       </c>
-      <c r="CK58" t="n">
+      <c r="CL58" t="n">
         <v>334596</v>
       </c>
-      <c r="CL58" t="n">
+      <c r="CM58" t="n">
         <v>389343.072</v>
       </c>
-      <c r="CM58" t="n">
+      <c r="CN58" t="n">
         <v>412739.008</v>
       </c>
-      <c r="CN58" t="n">
+      <c r="CO58" t="n">
         <v>420315.008</v>
       </c>
-      <c r="CO58" t="n">
+      <c r="CP58" t="n">
         <v>435727.008</v>
-      </c>
-      <c r="CP58" t="n">
-        <v>436861.984</v>
       </c>
       <c r="CQ58" t="n">
         <v>436861.984</v>
@@ -17489,31 +17489,31 @@
         <v>-89682</v>
       </c>
       <c r="AI59" t="n">
+        <v>-107612</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>-95824</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>-102927</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AL59" t="n">
         <v>-76593</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>-57700</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AN59" t="n">
         <v>-69413</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>-55068</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>-67671</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>-14732.992</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>-57273</v>
       </c>
       <c r="AR59" t="n">
         <v>-57273</v>
@@ -17642,31 +17642,31 @@
         <v>-49073</v>
       </c>
       <c r="CH59" t="n">
+        <v>-68483</v>
+      </c>
+      <c r="CI59" t="n">
         <v>-143498</v>
       </c>
-      <c r="CI59" t="n">
+      <c r="CJ59" t="n">
         <v>-174070</v>
       </c>
-      <c r="CJ59" t="n">
+      <c r="CK59" t="n">
         <v>-205659.008</v>
       </c>
-      <c r="CK59" t="n">
+      <c r="CL59" t="n">
         <v>-256270</v>
       </c>
-      <c r="CL59" t="n">
+      <c r="CM59" t="n">
         <v>-289071.968</v>
       </c>
-      <c r="CM59" t="n">
+      <c r="CN59" t="n">
         <v>-334456.992</v>
       </c>
-      <c r="CN59" t="n">
+      <c r="CO59" t="n">
         <v>-344216.992</v>
       </c>
-      <c r="CO59" t="n">
+      <c r="CP59" t="n">
         <v>-356207.008</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>-384064.032</v>
       </c>
       <c r="CQ59" t="n">
         <v>-384064.032</v>
@@ -17778,31 +17778,31 @@
         <v>51118</v>
       </c>
       <c r="AI60" t="n">
+        <v>62522</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>31973</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AK60" t="n">
         <v>9595</v>
       </c>
-      <c r="AK60" t="n">
+      <c r="AL60" t="n">
         <v>56917</v>
       </c>
-      <c r="AL60" t="n">
+      <c r="AM60" t="n">
         <v>50771.992</v>
       </c>
-      <c r="AM60" t="n">
+      <c r="AN60" t="n">
         <v>50128</v>
       </c>
-      <c r="AN60" t="n">
+      <c r="AO60" t="n">
         <v>46048</v>
       </c>
-      <c r="AO60" t="n">
+      <c r="AP60" t="n">
         <v>50082</v>
       </c>
-      <c r="AP60" t="n">
+      <c r="AQ60" t="n">
         <v>70749.008</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>58059</v>
       </c>
       <c r="AR60" t="n">
         <v>58059</v>
@@ -17931,31 +17931,31 @@
         <v>78052</v>
       </c>
       <c r="CH60" t="n">
+        <v>101044</v>
+      </c>
+      <c r="CI60" t="n">
         <v>95147</v>
       </c>
-      <c r="CI60" t="n">
+      <c r="CJ60" t="n">
         <v>92287</v>
       </c>
-      <c r="CJ60" t="n">
+      <c r="CK60" t="n">
         <v>81679</v>
       </c>
-      <c r="CK60" t="n">
+      <c r="CL60" t="n">
         <v>78326</v>
       </c>
-      <c r="CL60" t="n">
+      <c r="CM60" t="n">
         <v>100271.008</v>
       </c>
-      <c r="CM60" t="n">
+      <c r="CN60" t="n">
         <v>78282</v>
       </c>
-      <c r="CN60" t="n">
+      <c r="CO60" t="n">
         <v>76098</v>
       </c>
-      <c r="CO60" t="n">
+      <c r="CP60" t="n">
         <v>79520</v>
-      </c>
-      <c r="CP60" t="n">
-        <v>52797.984</v>
       </c>
       <c r="CQ60" t="n">
         <v>52797.984</v>
@@ -18067,31 +18067,31 @@
         <v>-28304</v>
       </c>
       <c r="AI61" t="n">
+        <v>-29843</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>-21801</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>-24953</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AL61" t="n">
         <v>-26211</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>-36727</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AN61" t="n">
         <v>-29858</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>-31724</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>-28207</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>-57775</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>-37606</v>
       </c>
       <c r="AR61" t="n">
         <v>-37606</v>
@@ -18330,31 +18330,31 @@
         <v>5903</v>
       </c>
       <c r="AI62" t="n">
+        <v>2997</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>3447</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AK62" t="n">
         <v>3976</v>
       </c>
-      <c r="AK62" t="n">
+      <c r="AL62" t="n">
         <v>5333</v>
       </c>
-      <c r="AL62" t="n">
+      <c r="AM62" t="n">
         <v>5972</v>
       </c>
-      <c r="AM62" t="n">
+      <c r="AN62" t="n">
         <v>3360</v>
       </c>
-      <c r="AN62" t="n">
+      <c r="AO62" t="n">
         <v>2384</v>
       </c>
-      <c r="AO62" t="n">
+      <c r="AP62" t="n">
         <v>3467</v>
       </c>
-      <c r="AP62" t="n">
+      <c r="AQ62" t="n">
         <v>4877</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>5467</v>
       </c>
       <c r="AR62" t="n">
         <v>5467</v>
@@ -18483,31 +18483,31 @@
         <v>15415</v>
       </c>
       <c r="CH62" t="n">
+        <v>16018</v>
+      </c>
+      <c r="CI62" t="n">
         <v>11563</v>
       </c>
-      <c r="CI62" t="n">
+      <c r="CJ62" t="n">
         <v>12399</v>
       </c>
-      <c r="CJ62" t="n">
+      <c r="CK62" t="n">
         <v>16775</v>
       </c>
-      <c r="CK62" t="n">
+      <c r="CL62" t="n">
         <v>17528</v>
       </c>
-      <c r="CL62" t="n">
+      <c r="CM62" t="n">
         <v>12719</v>
       </c>
-      <c r="CM62" t="n">
+      <c r="CN62" t="n">
         <v>8951</v>
       </c>
-      <c r="CN62" t="n">
+      <c r="CO62" t="n">
         <v>11093</v>
       </c>
-      <c r="CO62" t="n">
+      <c r="CP62" t="n">
         <v>15723</v>
-      </c>
-      <c r="CP62" t="n">
-        <v>18247</v>
       </c>
       <c r="CQ62" t="n">
         <v>18247</v>
@@ -18619,31 +18619,31 @@
         <v>-12051</v>
       </c>
       <c r="AI63" t="n">
+        <v>-12135</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>-9603</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>-9297</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AL63" t="n">
         <v>-9792</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AM63" t="n">
         <v>-11583</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AN63" t="n">
         <v>-10700</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>-11155</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>-10777</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>-13795</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-15302</v>
       </c>
       <c r="AR63" t="n">
         <v>-15302</v>
@@ -18772,31 +18772,31 @@
         <v>-36330</v>
       </c>
       <c r="CH63" t="n">
+        <v>-37352</v>
+      </c>
+      <c r="CI63" t="n">
         <v>-36438.992</v>
       </c>
-      <c r="CI63" t="n">
+      <c r="CJ63" t="n">
         <v>-35027</v>
       </c>
-      <c r="CJ63" t="n">
+      <c r="CK63" t="n">
         <v>-39819</v>
       </c>
-      <c r="CK63" t="n">
+      <c r="CL63" t="n">
         <v>-39199</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CM63" t="n">
         <v>-39229</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CN63" t="n">
         <v>-36314</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CO63" t="n">
         <v>-37560</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CP63" t="n">
         <v>-37460</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-36236</v>
       </c>
       <c r="CQ63" t="n">
         <v>-36236</v>
@@ -18908,31 +18908,31 @@
         <v>-20457</v>
       </c>
       <c r="AI64" t="n">
+        <v>-16650</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>-14588</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AK64" t="n">
         <v>-13899</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AL64" t="n">
         <v>-15814</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AM64" t="n">
         <v>-16067</v>
       </c>
-      <c r="AM64" t="n">
+      <c r="AN64" t="n">
         <v>-13710</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AO64" t="n">
         <v>-9080</v>
       </c>
-      <c r="AO64" t="n">
+      <c r="AP64" t="n">
         <v>-10293</v>
       </c>
-      <c r="AP64" t="n">
+      <c r="AQ64" t="n">
         <v>-17662</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>-10299</v>
       </c>
       <c r="AR64" t="n">
         <v>-10299</v>
@@ -19061,31 +19061,31 @@
         <v>-18185</v>
       </c>
       <c r="CH64" t="n">
+        <v>-19443</v>
+      </c>
+      <c r="CI64" t="n">
         <v>-22129</v>
       </c>
-      <c r="CI64" t="n">
+      <c r="CJ64" t="n">
         <v>-18865</v>
       </c>
-      <c r="CJ64" t="n">
+      <c r="CK64" t="n">
         <v>-22692</v>
       </c>
-      <c r="CK64" t="n">
+      <c r="CL64" t="n">
         <v>-23212</v>
       </c>
-      <c r="CL64" t="n">
+      <c r="CM64" t="n">
         <v>-23957</v>
       </c>
-      <c r="CM64" t="n">
+      <c r="CN64" t="n">
         <v>-22528</v>
       </c>
-      <c r="CN64" t="n">
+      <c r="CO64" t="n">
         <v>-21297</v>
       </c>
-      <c r="CO64" t="n">
+      <c r="CP64" t="n">
         <v>-24212</v>
-      </c>
-      <c r="CP64" t="n">
-        <v>-23656</v>
       </c>
       <c r="CQ64" t="n">
         <v>-23656</v>
@@ -19197,31 +19197,31 @@
         <v>-667</v>
       </c>
       <c r="AI65" t="n">
+        <v>-313</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>-411</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AK65" t="n">
         <v>-407</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AL65" t="n">
         <v>-534</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="AM65" t="n">
         <v>-485</v>
       </c>
-      <c r="AM65" t="n">
+      <c r="AN65" t="n">
         <v>-1550</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="AO65" t="n">
         <v>-2042</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="AP65" t="n">
         <v>-2455</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="AQ65" t="n">
         <v>-2725</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>-2919</v>
       </c>
       <c r="AR65" t="n">
         <v>-2919</v>
@@ -19350,31 +19350,31 @@
         <v>-4896</v>
       </c>
       <c r="CH65" t="n">
+        <v>-6138</v>
+      </c>
+      <c r="CI65" t="n">
         <v>-6213</v>
       </c>
-      <c r="CI65" t="n">
+      <c r="CJ65" t="n">
         <v>-6082</v>
       </c>
-      <c r="CJ65" t="n">
+      <c r="CK65" t="n">
         <v>-6008</v>
       </c>
-      <c r="CK65" t="n">
+      <c r="CL65" t="n">
         <v>-5531</v>
       </c>
-      <c r="CL65" t="n">
+      <c r="CM65" t="n">
         <v>-6613</v>
       </c>
-      <c r="CM65" t="n">
+      <c r="CN65" t="n">
         <v>-5268</v>
       </c>
-      <c r="CN65" t="n">
+      <c r="CO65" t="n">
         <v>-5507</v>
       </c>
-      <c r="CO65" t="n">
+      <c r="CP65" t="n">
         <v>-6136</v>
-      </c>
-      <c r="CP65" t="n">
-        <v>-6111</v>
       </c>
       <c r="CQ65" t="n">
         <v>-6111</v>
@@ -19486,31 +19486,31 @@
         <v>5986</v>
       </c>
       <c r="AI66" t="n">
+        <v>1432</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>4865</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AK66" t="n">
         <v>3733</v>
       </c>
-      <c r="AK66" t="n">
+      <c r="AL66" t="n">
         <v>3191</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>8246</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AN66" t="n">
         <v>18202</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AO66" t="n">
         <v>871</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AP66" t="n">
         <v>4845</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
         <v>11683</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>6735</v>
       </c>
       <c r="AR66" t="n">
         <v>6735</v>
@@ -19639,31 +19639,31 @@
         <v>575</v>
       </c>
       <c r="CH66" t="n">
+        <v>799</v>
+      </c>
+      <c r="CI66" t="n">
         <v>3857</v>
       </c>
-      <c r="CI66" t="n">
+      <c r="CJ66" t="n">
         <v>1281</v>
       </c>
-      <c r="CJ66" t="n">
+      <c r="CK66" t="n">
         <v>1451</v>
       </c>
-      <c r="CK66" t="n">
+      <c r="CL66" t="n">
         <v>847</v>
       </c>
-      <c r="CL66" t="n">
+      <c r="CM66" t="n">
         <v>1349</v>
       </c>
-      <c r="CM66" t="n">
+      <c r="CN66" t="n">
         <v>2288</v>
       </c>
-      <c r="CN66" t="n">
+      <c r="CO66" t="n">
         <v>890</v>
       </c>
-      <c r="CO66" t="n">
+      <c r="CP66" t="n">
         <v>2277</v>
-      </c>
-      <c r="CP66" t="n">
-        <v>2144</v>
       </c>
       <c r="CQ66" t="n">
         <v>2144</v>
@@ -19775,31 +19775,31 @@
         <v>-7018</v>
       </c>
       <c r="AI67" t="n">
+        <v>-5174</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>-5511</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AK67" t="n">
         <v>-9059</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AL67" t="n">
         <v>-8595</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AM67" t="n">
         <v>-22810</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AN67" t="n">
         <v>-25460</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AO67" t="n">
         <v>-12702</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
         <v>-12994</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AQ67" t="n">
         <v>-40153</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>-21288</v>
       </c>
       <c r="AR67" t="n">
         <v>-21288</v>
@@ -19928,31 +19928,31 @@
         <v>-14207</v>
       </c>
       <c r="CH67" t="n">
+        <v>-17239</v>
+      </c>
+      <c r="CI67" t="n">
         <v>-12215</v>
       </c>
-      <c r="CI67" t="n">
+      <c r="CJ67" t="n">
         <v>-25158</v>
       </c>
-      <c r="CJ67" t="n">
+      <c r="CK67" t="n">
         <v>-10575</v>
       </c>
-      <c r="CK67" t="n">
+      <c r="CL67" t="n">
         <v>-15919</v>
       </c>
-      <c r="CL67" t="n">
+      <c r="CM67" t="n">
         <v>-24479</v>
       </c>
-      <c r="CM67" t="n">
+      <c r="CN67" t="n">
         <v>-17436</v>
       </c>
-      <c r="CN67" t="n">
+      <c r="CO67" t="n">
         <v>-16429</v>
       </c>
-      <c r="CO67" t="n">
+      <c r="CP67" t="n">
         <v>-20406</v>
-      </c>
-      <c r="CP67" t="n">
-        <v>-26399</v>
       </c>
       <c r="CQ67" t="n">
         <v>-26399</v>
@@ -20217,31 +20217,31 @@
         <v>2037</v>
       </c>
       <c r="CH68" t="n">
+        <v>2388</v>
+      </c>
+      <c r="CI68" t="n">
         <v>1876</v>
       </c>
-      <c r="CI68" t="n">
+      <c r="CJ68" t="n">
         <v>2805</v>
       </c>
-      <c r="CJ68" t="n">
+      <c r="CK68" t="n">
         <v>-133</v>
       </c>
-      <c r="CK68" t="n">
+      <c r="CL68" t="n">
         <v>-2195</v>
       </c>
-      <c r="CL68" t="n">
+      <c r="CM68" t="n">
         <v>682</v>
       </c>
-      <c r="CM68" t="n">
+      <c r="CN68" t="n">
         <v>-506</v>
       </c>
-      <c r="CN68" t="n">
+      <c r="CO68" t="n">
         <v>-262</v>
       </c>
-      <c r="CO68" t="n">
+      <c r="CP68" t="n">
         <v>8713</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>10284</v>
       </c>
       <c r="CQ68" t="n">
         <v>10284</v>
@@ -20353,31 +20353,31 @@
         <v>22814</v>
       </c>
       <c r="AI69" t="n">
+        <v>32679</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>10172</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AK69" t="n">
         <v>-15358</v>
       </c>
-      <c r="AK69" t="n">
+      <c r="AL69" t="n">
         <v>30706</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>14045</v>
       </c>
-      <c r="AM69" t="n">
+      <c r="AN69" t="n">
         <v>20270</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>14324</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>21875</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>12974</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>20453</v>
       </c>
       <c r="AR69" t="n">
         <v>20453</v>
@@ -20616,31 +20616,31 @@
         <v>7</v>
       </c>
       <c r="AI70" t="n">
+        <v>-233</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>-225</v>
       </c>
-      <c r="AJ70" t="n">
+      <c r="AK70" t="n">
         <v>71603</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AL70" t="n">
         <v>129</v>
       </c>
-      <c r="AL70" t="n">
+      <c r="AM70" t="n">
         <v>-155</v>
       </c>
-      <c r="AM70" t="n">
+      <c r="AN70" t="n">
         <v>19</v>
       </c>
-      <c r="AN70" t="n">
+      <c r="AO70" t="n">
         <v>106</v>
       </c>
-      <c r="AO70" t="n">
+      <c r="AP70" t="n">
         <v>286</v>
       </c>
-      <c r="AP70" t="n">
+      <c r="AQ70" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-123</v>
       </c>
       <c r="AR70" t="n">
         <v>-123</v>
@@ -20879,31 +20879,31 @@
         <v>239</v>
       </c>
       <c r="AI71" t="n">
+        <v>-1037</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>99</v>
       </c>
-      <c r="AJ71" t="n">
+      <c r="AK71" t="n">
         <v>71897</v>
       </c>
-      <c r="AK71" t="n">
+      <c r="AL71" t="n">
         <v>429</v>
       </c>
-      <c r="AL71" t="n">
+      <c r="AM71" t="n">
         <v>-72425</v>
       </c>
-      <c r="AM71" t="n">
+      <c r="AN71" t="n">
         <v>177</v>
       </c>
-      <c r="AN71" t="n">
+      <c r="AO71" t="n">
         <v>164</v>
       </c>
-      <c r="AO71" t="n">
+      <c r="AP71" t="n">
         <v>366</v>
       </c>
-      <c r="AP71" t="n">
+      <c r="AQ71" t="n">
         <v>-707</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>23</v>
       </c>
       <c r="AR71" t="n">
         <v>23</v>
@@ -21142,31 +21142,31 @@
         <v>-232</v>
       </c>
       <c r="AI72" t="n">
+        <v>755</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>-324</v>
       </c>
-      <c r="AJ72" t="n">
+      <c r="AK72" t="n">
         <v>-294</v>
       </c>
-      <c r="AK72" t="n">
+      <c r="AL72" t="n">
         <v>-300</v>
       </c>
-      <c r="AL72" t="n">
+      <c r="AM72" t="n">
         <v>918</v>
       </c>
-      <c r="AM72" t="n">
+      <c r="AN72" t="n">
         <v>-158</v>
       </c>
-      <c r="AN72" t="n">
+      <c r="AO72" t="n">
         <v>-58</v>
       </c>
-      <c r="AO72" t="n">
+      <c r="AP72" t="n">
         <v>-80</v>
       </c>
-      <c r="AP72" t="n">
+      <c r="AQ72" t="n">
         <v>296</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>-146</v>
       </c>
       <c r="AR72" t="n">
         <v>-146</v>
@@ -21405,31 +21405,31 @@
         <v>22821</v>
       </c>
       <c r="AI73" t="n">
+        <v>32446</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>9947</v>
       </c>
-      <c r="AJ73" t="n">
+      <c r="AK73" t="n">
         <v>56245</v>
       </c>
-      <c r="AK73" t="n">
+      <c r="AL73" t="n">
         <v>30835</v>
       </c>
-      <c r="AL73" t="n">
+      <c r="AM73" t="n">
         <v>13890</v>
       </c>
-      <c r="AM73" t="n">
+      <c r="AN73" t="n">
         <v>20289</v>
       </c>
-      <c r="AN73" t="n">
+      <c r="AO73" t="n">
         <v>14430</v>
       </c>
-      <c r="AO73" t="n">
+      <c r="AP73" t="n">
         <v>22161</v>
       </c>
-      <c r="AP73" t="n">
+      <c r="AQ73" t="n">
         <v>12999</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>20330</v>
       </c>
       <c r="AR73" t="n">
         <v>20330</v>
@@ -21558,31 +21558,31 @@
         <v>22461</v>
       </c>
       <c r="CH73" t="n">
+        <v>40077</v>
+      </c>
+      <c r="CI73" t="n">
         <v>35292</v>
       </c>
-      <c r="CI73" t="n">
+      <c r="CJ73" t="n">
         <v>23640</v>
       </c>
-      <c r="CJ73" t="n">
+      <c r="CK73" t="n">
         <v>20678</v>
       </c>
-      <c r="CK73" t="n">
+      <c r="CL73" t="n">
         <v>10645</v>
       </c>
-      <c r="CL73" t="n">
+      <c r="CM73" t="n">
         <v>20743</v>
       </c>
-      <c r="CM73" t="n">
+      <c r="CN73" t="n">
         <v>7469</v>
       </c>
-      <c r="CN73" t="n">
+      <c r="CO73" t="n">
         <v>7026</v>
       </c>
-      <c r="CO73" t="n">
+      <c r="CP73" t="n">
         <v>18019</v>
-      </c>
-      <c r="CP73" t="n">
-        <v>-8929</v>
       </c>
       <c r="CQ73" t="n">
         <v>-8929</v>
@@ -21694,31 +21694,31 @@
         <v>-8324</v>
       </c>
       <c r="AI74" t="n">
+        <v>2835</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>2840</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>-16212</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AL74" t="n">
         <v>-10235</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>-18047</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AN74" t="n">
         <v>562</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>3261</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>-7471</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>3648</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>-7795</v>
       </c>
       <c r="AR74" t="n">
         <v>-7795</v>
@@ -21847,31 +21847,31 @@
         <v>-3396</v>
       </c>
       <c r="CH74" t="n">
+        <v>-15594</v>
+      </c>
+      <c r="CI74" t="n">
         <v>28562</v>
       </c>
-      <c r="CI74" t="n">
+      <c r="CJ74" t="n">
         <v>-7181</v>
       </c>
-      <c r="CJ74" t="n">
+      <c r="CK74" t="n">
         <v>-2329</v>
       </c>
-      <c r="CK74" t="n">
+      <c r="CL74" t="n">
         <v>-3508</v>
       </c>
-      <c r="CL74" t="n">
+      <c r="CM74" t="n">
         <v>-1868</v>
       </c>
-      <c r="CM74" t="n">
+      <c r="CN74" t="n">
         <v>-1786</v>
       </c>
-      <c r="CN74" t="n">
+      <c r="CO74" t="n">
         <v>3051</v>
       </c>
-      <c r="CO74" t="n">
+      <c r="CP74" t="n">
         <v>-1904</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>11234</v>
       </c>
       <c r="CQ74" t="n">
         <v>11234</v>
@@ -21983,31 +21983,31 @@
         <v>-158</v>
       </c>
       <c r="AI75" t="n">
+        <v>-24502</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>-3870</v>
       </c>
-      <c r="AJ75" t="n">
+      <c r="AK75" t="n">
         <v>1560</v>
       </c>
-      <c r="AK75" t="n">
+      <c r="AL75" t="n">
         <v>-7239</v>
       </c>
-      <c r="AL75" t="n">
+      <c r="AM75" t="n">
         <v>11754</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AN75" t="n">
         <v>-4413</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>1602</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>969</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>-2124</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>426</v>
       </c>
       <c r="AR75" t="n">
         <v>426</v>
@@ -22246,31 +22246,31 @@
         <v>-364</v>
       </c>
       <c r="AI76" t="n">
+        <v>-317</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>-677</v>
       </c>
-      <c r="AJ76" t="n">
+      <c r="AK76" t="n">
         <v>-694</v>
       </c>
-      <c r="AK76" t="n">
+      <c r="AL76" t="n">
         <v>-657</v>
       </c>
-      <c r="AL76" t="n">
+      <c r="AM76" t="n">
         <v>-1590</v>
       </c>
-      <c r="AM76" t="n">
+      <c r="AN76" t="n">
         <v>-1287</v>
       </c>
-      <c r="AN76" t="n">
+      <c r="AO76" t="n">
         <v>-1244</v>
       </c>
-      <c r="AO76" t="n">
+      <c r="AP76" t="n">
         <v>-1078</v>
       </c>
-      <c r="AP76" t="n">
+      <c r="AQ76" t="n">
         <v>-1121</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>-1156</v>
       </c>
       <c r="AR76" t="n">
         <v>-1156</v>
@@ -22399,31 +22399,31 @@
         <v>-1748</v>
       </c>
       <c r="CH76" t="n">
+        <v>-1580</v>
+      </c>
+      <c r="CI76" t="n">
         <v>-1379</v>
       </c>
-      <c r="CI76" t="n">
+      <c r="CJ76" t="n">
         <v>-2395</v>
       </c>
-      <c r="CJ76" t="n">
+      <c r="CK76" t="n">
         <v>-4507</v>
       </c>
-      <c r="CK76" t="n">
+      <c r="CL76" t="n">
         <v>-3770</v>
       </c>
-      <c r="CL76" t="n">
+      <c r="CM76" t="n">
         <v>-4178</v>
       </c>
-      <c r="CM76" t="n">
+      <c r="CN76" t="n">
         <v>-3506</v>
       </c>
-      <c r="CN76" t="n">
+      <c r="CO76" t="n">
         <v>-4177</v>
       </c>
-      <c r="CO76" t="n">
+      <c r="CP76" t="n">
         <v>-3840</v>
-      </c>
-      <c r="CP76" t="n">
-        <v>-4285</v>
       </c>
       <c r="CQ76" t="n">
         <v>-4285</v>
@@ -22899,31 +22899,31 @@
         <v>13975</v>
       </c>
       <c r="AI79" t="n">
+        <v>10462</v>
+      </c>
+      <c r="AJ79" t="n">
         <v>8240</v>
       </c>
-      <c r="AJ79" t="n">
+      <c r="AK79" t="n">
         <v>40899</v>
       </c>
-      <c r="AK79" t="n">
+      <c r="AL79" t="n">
         <v>12704</v>
       </c>
-      <c r="AL79" t="n">
+      <c r="AM79" t="n">
         <v>6007</v>
       </c>
-      <c r="AM79" t="n">
+      <c r="AN79" t="n">
         <v>15151</v>
       </c>
-      <c r="AN79" t="n">
+      <c r="AO79" t="n">
         <v>18049</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AP79" t="n">
         <v>14581</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AQ79" t="n">
         <v>13402</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>11805</v>
       </c>
       <c r="AR79" t="n">
         <v>11805</v>
@@ -23052,31 +23052,31 @@
         <v>17317</v>
       </c>
       <c r="CH79" t="n">
+        <v>22903</v>
+      </c>
+      <c r="CI79" t="n">
         <v>25033</v>
       </c>
-      <c r="CI79" t="n">
+      <c r="CJ79" t="n">
         <v>14064</v>
       </c>
-      <c r="CJ79" t="n">
+      <c r="CK79" t="n">
         <v>13842</v>
       </c>
-      <c r="CK79" t="n">
+      <c r="CL79" t="n">
         <v>3367</v>
       </c>
-      <c r="CL79" t="n">
+      <c r="CM79" t="n">
         <v>14697</v>
       </c>
-      <c r="CM79" t="n">
+      <c r="CN79" t="n">
         <v>2177</v>
       </c>
-      <c r="CN79" t="n">
+      <c r="CO79" t="n">
         <v>5900</v>
       </c>
-      <c r="CO79" t="n">
+      <c r="CP79" t="n">
         <v>12275</v>
-      </c>
-      <c r="CP79" t="n">
-        <v>-1980</v>
       </c>
       <c r="CQ79" t="n">
         <v>-1980</v>
